--- a/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B096C394-C7DA-48E3-9669-881C05893FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C5B9FD-5EC6-4D81-8D30-18BB52D3D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3AFFCBA-65FC-42A3-B10A-7D40C3C74C5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75A184E2-CA7D-404B-9EA4-CC571BC61705}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>34,67%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>65,33%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>38,39%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>30,68%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,223 +251,223 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CB57BF-6223-460D-BD9C-A879B22A676A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E31A922-840C-49B3-9F33-061D09D2B2BD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C5B9FD-5EC6-4D81-8D30-18BB52D3D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4542B2F-A08D-48DD-8A0C-64C82D94D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75A184E2-CA7D-404B-9EA4-CC571BC61705}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B9099F8F-CAFF-4147-900B-5E423C534780}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="160">
   <si>
     <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,409 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Una o más de una al día</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E31A922-840C-49B3-9F33-061D09D2B2BD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209273E4-9E18-4B3D-BD5A-B10CABF3FE45}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1048,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>130943</v>
+        <v>132435</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1063,7 @@
         <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>129179</v>
+        <v>111019</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1078,7 @@
         <v>136</v>
       </c>
       <c r="N4" s="7">
-        <v>260122</v>
+        <v>243455</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1099,7 @@
         <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>246736</v>
+        <v>267552</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1114,7 @@
         <v>132</v>
       </c>
       <c r="I5" s="7">
-        <v>225778</v>
+        <v>202181</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1129,7 @@
         <v>243</v>
       </c>
       <c r="N5" s="7">
-        <v>472514</v>
+        <v>469732</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1150,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1165,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1180,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1203,7 @@
         <v>110</v>
       </c>
       <c r="D7" s="7">
-        <v>164474</v>
+        <v>157093</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1218,7 @@
         <v>113</v>
       </c>
       <c r="I7" s="7">
-        <v>126196</v>
+        <v>111457</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,16 +1233,16 @@
         <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>290670</v>
+        <v>268550</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,46 +1254,46 @@
         <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>263922</v>
+        <v>266454</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
       </c>
       <c r="I8" s="7">
-        <v>371341</v>
+        <v>399050</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>538</v>
       </c>
       <c r="N8" s="7">
-        <v>635263</v>
+        <v>665504</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1305,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1320,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497537</v>
+        <v>510507</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1335,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925933</v>
+        <v>934054</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1304,7 +1349,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1313,46 +1358,46 @@
         <v>167</v>
       </c>
       <c r="D10" s="7">
-        <v>170589</v>
+        <v>156819</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>221</v>
       </c>
       <c r="I10" s="7">
-        <v>166152</v>
+        <v>149309</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>388</v>
       </c>
       <c r="N10" s="7">
-        <v>336741</v>
+        <v>306128</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,46 +1409,46 @@
         <v>378</v>
       </c>
       <c r="D11" s="7">
-        <v>385391</v>
+        <v>378423</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>622</v>
       </c>
       <c r="I11" s="7">
-        <v>416154</v>
+        <v>392111</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
       </c>
       <c r="N11" s="7">
-        <v>801545</v>
+        <v>770534</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1460,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555980</v>
+        <v>535242</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1475,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>582306</v>
+        <v>541420</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1490,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1138286</v>
+        <v>1076662</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1504,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1468,46 +1513,46 @@
         <v>186</v>
       </c>
       <c r="D13" s="7">
-        <v>197226</v>
+        <v>184133</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>262</v>
       </c>
       <c r="I13" s="7">
-        <v>175690</v>
+        <v>157367</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
       </c>
       <c r="N13" s="7">
-        <v>372916</v>
+        <v>341501</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1564,46 @@
         <v>479</v>
       </c>
       <c r="D14" s="7">
-        <v>526764</v>
+        <v>703653</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>877</v>
       </c>
       <c r="I14" s="7">
-        <v>570434</v>
+        <v>554450</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1356</v>
       </c>
       <c r="N14" s="7">
-        <v>1097198</v>
+        <v>1258103</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1615,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1630,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746124</v>
+        <v>711817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1645,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470114</v>
+        <v>1599604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1659,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1668,46 @@
         <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>155565</v>
+        <v>139804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
       </c>
       <c r="I16" s="7">
-        <v>123938</v>
+        <v>109488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>353</v>
       </c>
       <c r="N16" s="7">
-        <v>279503</v>
+        <v>249292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1719,46 @@
         <v>494</v>
       </c>
       <c r="D17" s="7">
-        <v>441640</v>
+        <v>418603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>813</v>
       </c>
       <c r="I17" s="7">
-        <v>472014</v>
+        <v>437378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1307</v>
       </c>
       <c r="N17" s="7">
-        <v>913655</v>
+        <v>855982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1770,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>597205</v>
+        <v>558407</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1785,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>595952</v>
+        <v>546866</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1800,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1193158</v>
+        <v>1105274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1814,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7">
-        <v>148171</v>
+        <v>74105</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="7">
+        <v>129</v>
+      </c>
+      <c r="I19" s="7">
+        <v>67312</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>244</v>
+      </c>
+      <c r="N19" s="7">
+        <v>141417</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>251</v>
-      </c>
-      <c r="I19" s="7">
-        <v>150671</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>461</v>
-      </c>
-      <c r="N19" s="7">
-        <v>298842</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1871,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>817</v>
+        <v>454</v>
       </c>
       <c r="D20" s="7">
-        <v>548649</v>
+        <v>293141</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>696</v>
+      </c>
+      <c r="I20" s="7">
+        <v>539889</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1150</v>
+      </c>
+      <c r="N20" s="7">
+        <v>833031</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>1454</v>
-      </c>
-      <c r="I20" s="7">
-        <v>874046</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2271</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1422695</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696820</v>
+        <v>367246</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024717</v>
+        <v>607201</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721537</v>
+        <v>974448</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1969,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7">
-        <v>966968</v>
+        <v>58410</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>122</v>
+      </c>
+      <c r="I22" s="7">
+        <v>64041</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>1109</v>
-      </c>
-      <c r="I22" s="7">
-        <v>871827</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>217</v>
+      </c>
+      <c r="N22" s="7">
+        <v>122451</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2009</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1838795</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2026,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2471</v>
+        <v>363</v>
       </c>
       <c r="D23" s="7">
-        <v>2413102</v>
+        <v>224349</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="7">
+        <v>758</v>
+      </c>
+      <c r="I23" s="7">
+        <v>361242</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>4244</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2929767</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1121</v>
+      </c>
+      <c r="N23" s="7">
+        <v>585592</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6715</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5342869</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2077,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425283</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708043</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>900</v>
+      </c>
+      <c r="D25" s="7">
+        <v>902799</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1109</v>
+      </c>
+      <c r="I25" s="7">
+        <v>769995</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2009</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1672793</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2471</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2552177</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4244</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2886300</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6715</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5438477</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380070</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454976</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5353</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801594</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656295</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8724</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181664</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7111270</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
+          <t>Población según el número de bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
